--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H2">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>1242.071895050228</v>
+        <v>2086.994444150883</v>
       </c>
       <c r="R2">
-        <v>1242.071895050228</v>
+        <v>18782.94999735795</v>
       </c>
       <c r="S2">
-        <v>0.191167697278655</v>
+        <v>0.2369036508081818</v>
       </c>
       <c r="T2">
-        <v>0.191167697278655</v>
+        <v>0.2369036508081818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H3">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>2589.584133959357</v>
+        <v>3543.000050188401</v>
       </c>
       <c r="R3">
-        <v>2589.584133959357</v>
+        <v>31887.00045169561</v>
       </c>
       <c r="S3">
-        <v>0.3985637528480839</v>
+        <v>0.4021810642839072</v>
       </c>
       <c r="T3">
-        <v>0.3985637528480839</v>
+        <v>0.4021810642839073</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H4">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>1111.29979295009</v>
+        <v>1524.018064473643</v>
       </c>
       <c r="R4">
-        <v>1111.29979295009</v>
+        <v>13716.16258026279</v>
       </c>
       <c r="S4">
-        <v>0.1710405196761366</v>
+        <v>0.1729977980455623</v>
       </c>
       <c r="T4">
-        <v>0.1710405196761366</v>
+        <v>0.1729977980455624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H5">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>290.8587588614703</v>
+        <v>359.7147089072037</v>
       </c>
       <c r="R5">
-        <v>290.8587588614703</v>
+        <v>3237.432380164833</v>
       </c>
       <c r="S5">
-        <v>0.04476616803460185</v>
+        <v>0.04083275258750903</v>
       </c>
       <c r="T5">
-        <v>0.04476616803460185</v>
+        <v>0.04083275258750903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H6">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>606.4087193119489</v>
+        <v>610.6720769111872</v>
       </c>
       <c r="R6">
-        <v>606.4087193119489</v>
+        <v>5496.048692200685</v>
       </c>
       <c r="S6">
-        <v>0.0933325670941742</v>
+        <v>0.06931999501595981</v>
       </c>
       <c r="T6">
-        <v>0.0933325670941742</v>
+        <v>0.06931999501595983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H7">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>260.2355626824654</v>
+        <v>262.6800066324578</v>
       </c>
       <c r="R7">
-        <v>260.2355626824654</v>
+        <v>2364.12005969212</v>
       </c>
       <c r="S7">
-        <v>0.04005294175504245</v>
+        <v>0.0298179291947591</v>
       </c>
       <c r="T7">
-        <v>0.04005294175504245</v>
+        <v>0.02981792919475911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H8">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J8">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>99.71611062677802</v>
+        <v>123.2199001945707</v>
       </c>
       <c r="R8">
-        <v>99.71611062677802</v>
+        <v>1108.979101751136</v>
       </c>
       <c r="S8">
-        <v>0.01534733965567581</v>
+        <v>0.01398721701925295</v>
       </c>
       <c r="T8">
-        <v>0.01534733965567581</v>
+        <v>0.01398721701925295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H9">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J9">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>207.8971909824899</v>
+        <v>209.1850861400814</v>
       </c>
       <c r="R9">
-        <v>207.8971909824899</v>
+        <v>1882.665775260732</v>
       </c>
       <c r="S9">
-        <v>0.03199752560959136</v>
+        <v>0.02374549234670913</v>
       </c>
       <c r="T9">
-        <v>0.03199752560959136</v>
+        <v>0.02374549234670913</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H10">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J10">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>89.21745475035121</v>
+        <v>89.98076364097335</v>
       </c>
       <c r="R10">
-        <v>89.21745475035121</v>
+        <v>809.82687276876</v>
       </c>
       <c r="S10">
-        <v>0.0137314880480389</v>
+        <v>0.01021410069815862</v>
       </c>
       <c r="T10">
-        <v>0.0137314880480389</v>
+        <v>0.01021410069815862</v>
       </c>
     </row>
   </sheetData>
